--- a/python-in-excel-understand-plotnine-demo.xlsx
+++ b/python-in-excel-understand-plotnine-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B9D02-167C-4896-99C2-2DD4ADB22961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A310B34D-70DC-4A0D-BC3D-EE7774BC6F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" activeTab="1" xr2:uid="{D124B2F6-1048-440B-A09B-DE719456934A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="12480" xr2:uid="{D124B2F6-1048-440B-A09B-DE719456934A}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -173,7 +173,7 @@
     <pythonScript>
       <code>(ggplot(ratings_df, aes(x='Store', y='Customer_Rating', fill='Store'))
  + geom_violin(draw_quantiles=[0.5], alpha=0.7)
- + theme_minimal()
+ + theme_classic()
  + labs(title='Customer Ratings Distribution by Store',
         x='Store',
         y='Customer Rating'))</code>
@@ -427,15 +427,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>481013</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>732485</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>183841</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89548</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>79066</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,7 +463,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1281113" y="14539912"/>
+          <a:off x="1438276" y="14663737"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1038,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A3D371-FE10-45F5-A66C-BF7704B80A0C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1428,9 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5FB496-6D90-4942-AA00-D8375E1E51FB}">
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
